--- a/src/main/resources/file/text.xlsx
+++ b/src/main/resources/file/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>海拔</t>
   </si>
@@ -63,7 +63,7 @@
     <t>RH</t>
   </si>
   <si>
-    <t>2020年9月9日 11:00:00</t>
+    <t>2020年9月8日 11:00:00</t>
   </si>
   <si>
     <t>青杨</t>
@@ -72,13 +72,25 @@
     <t>2020年9月9日 11:30:00</t>
   </si>
   <si>
+    <t>2020年9月8日 12:00:00</t>
+  </si>
+  <si>
+    <t>2020年9月9日 12:30:00</t>
+  </si>
+  <si>
+    <t>白杨</t>
+  </si>
+  <si>
     <t>2020年9月9日 12:00:00</t>
   </si>
   <si>
-    <t>2020年9月9日 12:30:00</t>
-  </si>
-  <si>
-    <t>白杨</t>
+    <t>落叶松</t>
+  </si>
+  <si>
+    <t>2020年9月8日 12:30:00</t>
+  </si>
+  <si>
+    <t>云杉</t>
   </si>
 </sst>
 </file>
@@ -86,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -101,7 +113,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +187,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -132,14 +211,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,66 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,21 +255,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,19 +265,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,37 +397,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,121 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,18 +463,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +509,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,46 +541,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,16 +1061,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P5"/>
+  <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I25" sqref="M2 I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="14.1296296296296" customWidth="1"/>
-    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="14.1333333333333" customWidth="1"/>
+    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
@@ -1295,6 +1307,429 @@
         <v>5</v>
       </c>
       <c r="P5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
         <v>5</v>
       </c>
     </row>
@@ -1314,7 +1749,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1331,7 +1766,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/file/text.xlsx
+++ b/src/main/resources/file/text.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,20 +112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -134,8 +120,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,107 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +265,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,7 +349,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,103 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,36 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,9 +485,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,19 +536,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1064,13 @@
   <dimension ref="B1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="M2 I25"/>
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="14.1333333333333" customWidth="1"/>
-    <col min="10" max="10" width="18.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" customWidth="1"/>
+    <col min="10" max="10" width="18.3796296296296" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
@@ -1145,16 +1145,16 @@
         <v>200000</v>
       </c>
       <c r="I2">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="J2">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="K2">
-        <v>200000</v>
+        <v>2000</v>
       </c>
       <c r="L2">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>15</v>
@@ -1192,16 +1192,16 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>17</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>18</v>
@@ -1286,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>19</v>
@@ -1333,16 +1333,16 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>17</v>
@@ -1380,16 +1380,16 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>21</v>
@@ -1427,16 +1427,16 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>19</v>
@@ -1474,16 +1474,16 @@
         <v>2</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>17</v>
@@ -1521,16 +1521,16 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>21</v>
@@ -1568,16 +1568,16 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>23</v>
@@ -1615,16 +1615,16 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>17</v>
@@ -1662,16 +1662,16 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>21</v>
@@ -1709,16 +1709,16 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>19</v>
@@ -1749,7 +1749,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1766,7 +1766,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
